--- a/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
+++ b/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -612,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -629,7 +629,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 20:Week 27'!B8)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -676,27 +676,27 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 20:Week 27'!C8, F4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="19" t="e">
+        <v>18</v>
+      </c>
+      <c r="C4" s="19">
         <f>B4/(B1/100)</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5">
         <f>SUM('Week 20:Week 27'!C11)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="19" t="e">
+      <c r="E4" s="19">
         <f>D4/(B1/100)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F4" s="14">
         <f>SUM('Week 20:Week 27'!C12)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="18" t="e">
+      <c r="G4" s="18">
         <f>F4/(B1/100)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -706,27 +706,27 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 20:Week 27'!D8,F5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="19" t="e">
+        <v>18</v>
+      </c>
+      <c r="C5" s="19">
         <f>B5/(B1/100)</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="D5" s="5">
         <f>SUM('Week 20:Week 27'!D11)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="19" t="e">
+      <c r="E5" s="19">
         <f>D5/(B1/100)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F5" s="14">
         <f>SUM('Week 20:Week 27'!D12)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="18" t="e">
+      <c r="G5" s="18">
         <f>F5/(B1/100)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -736,27 +736,27 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 20:Week 27'!E8,F6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="19" t="e">
+        <v>18</v>
+      </c>
+      <c r="C6" s="19">
         <f>B6/(B1/100)</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="D6" s="5">
         <f>SUM('Week 20:Week 27'!E11)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="19" t="e">
+      <c r="E6" s="19">
         <f>D6/(B1/100)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F6" s="14">
         <f>SUM('Week 20:Week 27'!E12)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="18" t="e">
+      <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,10 +841,18 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -852,10 +860,18 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
     </row>
@@ -863,10 +879,18 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -874,10 +898,18 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -896,19 +928,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>0</v>
+        <f>SUM(B2:B6)</f>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:E8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="8"/>
@@ -974,7 +1007,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,7 +1109,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <f>SUM(B2+B3+B4+B5+B6)</f>
+        <f>SUM(B2:B6)</f>
         <v>0</v>
       </c>
       <c r="C8" s="5">
@@ -1155,7 +1188,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1257,7 +1290,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <f>SUM(B2+B3+B4+B5+B6)</f>
+        <f>SUM(B2:B6)</f>
         <v>0</v>
       </c>
       <c r="C8" s="5">
@@ -1336,7 +1369,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,7 +1471,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <f>SUM(B2+B3+B4+B5+B6)</f>
+        <f>SUM(B2:B6)</f>
         <v>0</v>
       </c>
       <c r="C8" s="5">
@@ -1517,7 +1550,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1619,7 +1652,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <f>SUM(B2+B3+B4+B5+B6)</f>
+        <f>SUM(B2:B6)</f>
         <v>0</v>
       </c>
       <c r="C8" s="5">
@@ -1698,7 +1731,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1800,7 +1833,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <f>SUM(B2+B3+B4+B5+B6)</f>
+        <f>SUM(B2:B6)</f>
         <v>0</v>
       </c>
       <c r="C8" s="5">
@@ -1879,7 +1912,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1981,7 +2014,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <f>SUM(B2+B3+B4+B5+B6)</f>
+        <f>SUM(B2:B6)</f>
         <v>0</v>
       </c>
       <c r="C8" s="5">
@@ -2060,7 +2093,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2162,7 +2195,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <f>SUM(B2+B3+B4+B5+B6)</f>
+        <f>SUM(B2:B6)</f>
         <v>0</v>
       </c>
       <c r="C8" s="5">

--- a/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
+++ b/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Desktop\Sexy-Egels\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Desktop\Orphanage\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -252,7 +252,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFill="1"/>
@@ -290,6 +290,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -629,7 +632,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 20:Week 27'!B8)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -676,7 +679,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 20:Week 27'!C8, F4)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -706,19 +709,19 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 20:Week 27'!D8,F5)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
-        <v>100</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="D5" s="5">
         <f>SUM('Week 20:Week 27'!D11)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E5" s="19">
         <f>D5/(B1/100)</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="F5" s="14">
         <f>SUM('Week 20:Week 27'!D12)</f>
@@ -736,7 +739,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 20:Week 27'!E8,F6)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
@@ -786,7 +789,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -867,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="5">
         <v>2</v>
@@ -905,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="5">
         <v>8</v>
@@ -937,7 +940,7 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
@@ -974,6 +977,9 @@
         <v>11</v>
       </c>
       <c r="B11" s="7"/>
+      <c r="D11" s="20">
+        <v>4</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1007,7 +1013,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,10 +1060,18 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -1065,10 +1079,18 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
     </row>
@@ -1110,19 +1132,19 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2:B6)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:E8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="8"/>
@@ -1155,6 +1177,9 @@
         <v>11</v>
       </c>
       <c r="B11" s="7"/>
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
+++ b/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 20:Week 27'!B8)</f>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -679,7 +679,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 20:Week 27'!C8, F4)</f>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -709,11 +709,11 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 20:Week 27'!D8,F5)</f>
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
-        <v>66.666666666666671</v>
+        <v>80.952380952380949</v>
       </c>
       <c r="D5" s="5">
         <f>SUM('Week 20:Week 27'!D11)</f>
@@ -721,7 +721,7 @@
       </c>
       <c r="E5" s="19">
         <f>D5/(B1/100)</f>
-        <v>33.333333333333336</v>
+        <v>19.047619047619047</v>
       </c>
       <c r="F5" s="14">
         <f>SUM('Week 20:Week 27'!D12)</f>
@@ -739,7 +739,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 20:Week 27'!E8,F6)</f>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
@@ -1213,7 +1213,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1260,10 +1260,18 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -1271,10 +1279,18 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
     </row>
@@ -1282,10 +1298,18 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -1293,10 +1317,18 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -1316,19 +1348,19 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2:B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:E8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="8"/>
@@ -1394,7 +1426,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
+++ b/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -615,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -632,7 +632,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 20:Week 27'!B8)</f>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -679,7 +679,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 20:Week 27'!C8, F4)</f>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -709,11 +709,11 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 20:Week 27'!D8,F5)</f>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
-        <v>80.952380952380949</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="D5" s="5">
         <f>SUM('Week 20:Week 27'!D11)</f>
@@ -721,7 +721,7 @@
       </c>
       <c r="E5" s="19">
         <f>D5/(B1/100)</f>
-        <v>19.047619047619047</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="F5" s="14">
         <f>SUM('Week 20:Week 27'!D12)</f>
@@ -739,11 +739,11 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 20:Week 27'!E8,F6)</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
-        <v>100</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="D6" s="5">
         <f>SUM('Week 20:Week 27'!E11)</f>
@@ -755,11 +755,11 @@
       </c>
       <c r="F6" s="14">
         <f>SUM('Week 20:Week 27'!E12)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -1213,6 +1213,222 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="47.88671875" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <f>SUM(B2:B6)</f>
+        <v>18</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:E8" si="0">SUM(C2:C6)</f>
+        <v>18</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1269,9 +1485,7 @@
       <c r="D3" s="5">
         <v>4</v>
       </c>
-      <c r="E3" s="5">
-        <v>4</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -1359,189 +1573,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1"/>
-    <col min="7" max="7" width="47.88671875" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <f>SUM(B2:B6)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <f t="shared" ref="C8:E8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
+++ b/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
@@ -709,19 +709,19 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 20:Week 27'!D8,F5)</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
-        <v>86.666666666666671</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="D5" s="5">
         <f>SUM('Week 20:Week 27'!D11)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" s="19">
         <f>D5/(B1/100)</f>
-        <v>13.333333333333334</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="F5" s="14">
         <f>SUM('Week 20:Week 27'!D12)</f>
@@ -1429,7 +1429,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1500,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="5">
         <v>2</v>
@@ -1565,12 +1565,12 @@
         <v>18</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C8:E8" si="0">SUM(C2:C6)</f>
+        <f t="shared" ref="C8:D8" si="0">SUM(C2:C6)</f>
         <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5">
         <v>4</v>
@@ -1606,6 +1606,9 @@
         <v>11</v>
       </c>
       <c r="B11" s="7"/>
+      <c r="D11">
+        <v>2</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
+++ b/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -616,7 +616,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 20:Week 27'!B8)</f>
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -679,7 +679,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 20:Week 27'!C8, F4)</f>
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -709,19 +709,19 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 20:Week 27'!D8,F5)</f>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
-        <v>83.333333333333343</v>
+        <v>82.051282051282044</v>
       </c>
       <c r="D5" s="5">
         <f>SUM('Week 20:Week 27'!D11)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" s="19">
         <f>D5/(B1/100)</f>
-        <v>16.666666666666668</v>
+        <v>17.948717948717949</v>
       </c>
       <c r="F5" s="14">
         <f>SUM('Week 20:Week 27'!D12)</f>
@@ -739,11 +739,11 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 20:Week 27'!E8,F6)</f>
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
-        <v>76.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="D6" s="5">
         <f>SUM('Week 20:Week 27'!E11)</f>
@@ -759,7 +759,7 @@
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>13.333333333333334</v>
+        <v>10.256410256410255</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -1428,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1485,7 +1485,9 @@
       <c r="D3" s="5">
         <v>4</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -1519,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -1570,10 +1572,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5">
-        <v>4</v>
+        <f>SUM(E2:E6)</f>
+        <v>18</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="8"/>
@@ -1606,8 +1609,8 @@
         <v>11</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="D11">
-        <v>2</v>
+      <c r="D11" s="5">
+        <v>6</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="8"/>
@@ -1642,7 +1645,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1689,10 +1692,18 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -1700,10 +1711,18 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
     </row>
@@ -1711,10 +1730,18 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -1722,10 +1749,18 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -1745,19 +1780,19 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2:B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:E8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="8"/>
@@ -1822,7 +1857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
+++ b/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
@@ -679,19 +679,19 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 20:Week 27'!C8, F4)</f>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
-        <v>100</v>
+        <v>97.435897435897431</v>
       </c>
       <c r="D4" s="5">
         <f>SUM('Week 20:Week 27'!C11)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="19">
         <f>D4/(B1/100)</f>
-        <v>0</v>
+        <v>2.5641025641025639</v>
       </c>
       <c r="F4" s="14">
         <f>SUM('Week 20:Week 27'!C12)</f>
@@ -1645,7 +1645,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1753,7 +1753,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="5">
         <v>8</v>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:E8" si="0">SUM(C2:C6)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
@@ -1825,6 +1825,9 @@
         <v>11</v>
       </c>
       <c r="B11" s="7"/>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
+++ b/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Desktop\Orphanage\Documents\"/>
@@ -679,11 +679,11 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 20:Week 27'!C8, F4)</f>
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
-        <v>97.435897435897431</v>
+        <v>120.51282051282051</v>
       </c>
       <c r="D4" s="5">
         <f>SUM('Week 20:Week 27'!C11)</f>
@@ -709,11 +709,11 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 20:Week 27'!D8,F5)</f>
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
-        <v>82.051282051282044</v>
+        <v>105.12820512820512</v>
       </c>
       <c r="D5" s="5">
         <f>SUM('Week 20:Week 27'!D11)</f>
@@ -739,11 +739,11 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 20:Week 27'!E8,F6)</f>
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
-        <v>100</v>
+        <v>123.07692307692307</v>
       </c>
       <c r="D6" s="5">
         <f>SUM('Week 20:Week 27'!E11)</f>
@@ -1861,7 +1861,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1909,9 +1909,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -1920,9 +1926,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
     </row>
@@ -1931,9 +1943,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -1942,9 +1960,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -1968,15 +1992,15 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:E8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
+++ b/Documents/Aanwezigheid Game labs 2 Orphanage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -616,7 +616,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 20:Week 27'!B8)</f>
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -679,11 +679,11 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 20:Week 27'!C8, F4)</f>
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
-        <v>120.51282051282051</v>
+        <v>98.484848484848484</v>
       </c>
       <c r="D4" s="5">
         <f>SUM('Week 20:Week 27'!C11)</f>
@@ -691,7 +691,7 @@
       </c>
       <c r="E4" s="19">
         <f>D4/(B1/100)</f>
-        <v>2.5641025641025639</v>
+        <v>1.5151515151515151</v>
       </c>
       <c r="F4" s="14">
         <f>SUM('Week 20:Week 27'!C12)</f>
@@ -709,11 +709,11 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 20:Week 27'!D8,F5)</f>
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
-        <v>105.12820512820512</v>
+        <v>89.393939393939391</v>
       </c>
       <c r="D5" s="5">
         <f>SUM('Week 20:Week 27'!D11)</f>
@@ -721,7 +721,7 @@
       </c>
       <c r="E5" s="19">
         <f>D5/(B1/100)</f>
-        <v>17.948717948717949</v>
+        <v>10.606060606060606</v>
       </c>
       <c r="F5" s="14">
         <f>SUM('Week 20:Week 27'!D12)</f>
@@ -739,11 +739,11 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 20:Week 27'!E8,F6)</f>
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
-        <v>123.07692307692307</v>
+        <v>100</v>
       </c>
       <c r="D6" s="5">
         <f>SUM('Week 20:Week 27'!E11)</f>
@@ -759,7 +759,7 @@
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>10.256410256410255</v>
+        <v>6.0606060606060606</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -788,7 +788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1645,427 +1645,6 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1"/>
-    <col min="7" max="7" width="47.88671875" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <f>SUM(B2:B6)</f>
-        <v>18</v>
-      </c>
-      <c r="C8" s="5">
-        <f t="shared" ref="C8:E8" si="0">SUM(C2:C6)</f>
-        <v>16</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1"/>
-    <col min="7" max="7" width="47.88671875" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <f>SUM(B2:B6)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <f t="shared" ref="C8:E8" si="0">SUM(C2:C6)</f>
-        <v>18</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2113,10 +1692,18 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -2124,10 +1711,18 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
     </row>
@@ -2135,10 +1730,18 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -2146,10 +1749,18 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -2169,19 +1780,19 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2:B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:E8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="8"/>
@@ -2214,6 +1825,9 @@
         <v>11</v>
       </c>
       <c r="B11" s="7"/>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -2242,12 +1856,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2294,10 +1908,18 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -2305,10 +1927,18 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
     </row>
@@ -2316,10 +1946,18 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -2327,10 +1965,18 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -2350,19 +1996,19 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2:B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:E8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="8"/>
@@ -2421,4 +2067,430 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="47.88671875" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <f>SUM(B2:B6)</f>
+        <v>18</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:E8" si="0">SUM(C2:C6)</f>
+        <v>18</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="47.88671875" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <f>SUM(B2:B6)</f>
+        <v>18</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:E8" si="0">SUM(C2:C6)</f>
+        <v>18</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>